--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-858146.1356286668</v>
+        <v>-860033.7171450689</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.7685367605563</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>285.6584038145494</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>71.19517843009933</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>176.0251356438853</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>368.3381791856766</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>157.2029797327297</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>12.60471623380421</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.14365212156734</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>192.1901547575652</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>292.6039517470329</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>56.75885316694674</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>113.2870337730222</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113163</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>101.5008511078689</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>152.7427097737292</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>162.6705139454667</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>221.1607284235356</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>85.13414792547255</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>64.34190763938372</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>45.37449962547137</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>27.37255160319393</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.23020458469827</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,10 +2770,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>103.4544270198077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965504</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>73.68187160882033</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437393</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897881</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.21598883571468</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>37.00960563524551</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463091</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.521729839487</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1079.559212899076</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>830.0930207753941</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>823.1475200261906</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.521729839487</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>656.2146625598692</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>487.2784796319623</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>656.2146625598692</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>656.2146625598692</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>656.2146625598692</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U4" t="n">
-        <v>656.2146625598692</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V4" t="n">
-        <v>656.2146625598692</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W4" t="n">
-        <v>656.2146625598692</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X4" t="n">
-        <v>656.2146625598692</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.2146625598692</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>990.4536294691011</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>990.4536294691011</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>579.4677246794936</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>2108.418929351565</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>2108.418929351565</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.1627947174721</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="C7" t="n">
-        <v>218.1627947174721</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="D7" t="n">
-        <v>218.1627947174721</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>70.24970113507894</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>70.24970113507894</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>70.24970113507894</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.1627947174721</v>
+        <v>224.4233909876365</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.00952757579</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
         <v>806.0470106353782</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2326.840133880306</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2326.840133880306</v>
       </c>
       <c r="X8" t="n">
-        <v>1951.748699615723</v>
+        <v>2326.840133880306</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.609367639912</v>
+        <v>1936.700801904495</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>261.391796148808</v>
       </c>
       <c r="C10" t="n">
         <v>204.0596212327002</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>613.6976369609572</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>613.6976369609572</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X10" t="n">
-        <v>385.7080860629399</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7080860629399</v>
+        <v>261.391796148808</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805454</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,28 +5060,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.9335914287639</v>
+        <v>665.6859735286095</v>
       </c>
       <c r="C13" t="n">
-        <v>673.9335914287639</v>
+        <v>496.7497906007026</v>
       </c>
       <c r="D13" t="n">
-        <v>523.8169520164281</v>
+        <v>346.6331511883668</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241922</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688036</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799329</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471156</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T13" t="n">
-        <v>1144.710695045446</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U13" t="n">
-        <v>855.5820562590036</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="V13" t="n">
-        <v>855.5820562590036</v>
+        <v>955.10314356557</v>
       </c>
       <c r="W13" t="n">
-        <v>855.5820562590036</v>
+        <v>665.6859735286095</v>
       </c>
       <c r="X13" t="n">
-        <v>855.5820562590036</v>
+        <v>665.6859735286095</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.5820562590036</v>
+        <v>665.6859735286095</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.010087623274</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507114</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904322</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752259999</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="X16" t="n">
-        <v>562.3990000507114</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.3990000507114</v>
+        <v>710.6134626728253</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,19 +5498,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>757.72413441243</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>757.72413441243</v>
+        <v>972.2646934632136</v>
       </c>
       <c r="D19" t="n">
-        <v>757.72413441243</v>
+        <v>822.1480540508778</v>
       </c>
       <c r="E19" t="n">
-        <v>609.8110408300369</v>
+        <v>674.2349604684847</v>
       </c>
       <c r="F19" t="n">
-        <v>462.9210933321265</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="G19" t="n">
-        <v>294.7457716519471</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104473</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>757.72413441243</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y19" t="n">
-        <v>757.72413441243</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,28 +5768,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E22" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.083442653386</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.954803866944</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.954803866944</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>874.5376338299834</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X22" t="n">
-        <v>646.5480829319661</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7555037884359</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845924</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.397748747284</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2338.698370483032</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>524.5778132641556</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1486.562528553158</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1262.777113342664</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1262.777113342664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1262.777113342664</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>973.359943305703</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>745.3703924076857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>524.5778132641556</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>559.3999450277973</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>806.1650729342614</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.4381409926458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>542.4381409926458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>542.4381409926459</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102528</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>874.9271131227921</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>770.4276918906631</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>542.4381409926458</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.4381409926458</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6452,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2520.760934363148</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.3081347216942</v>
+        <v>620.7342676598953</v>
       </c>
       <c r="C31" t="n">
-        <v>433.1328170751581</v>
+        <v>507.5589500133594</v>
       </c>
       <c r="D31" t="n">
-        <v>338.7770429441931</v>
+        <v>413.2031758823947</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441931</v>
+        <v>338.7770429441923</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.647960727653</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.647960727653</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6622,49 +6622,49 @@
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1843.428384863669</v>
+        <v>1791.966918252999</v>
       </c>
       <c r="T31" t="n">
-        <v>1675.403834934546</v>
+        <v>1623.942368323876</v>
       </c>
       <c r="U31" t="n">
-        <v>1442.036061429475</v>
+        <v>1390.574594818806</v>
       </c>
       <c r="V31" t="n">
-        <v>1243.112438504959</v>
+        <v>1191.65097189429</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.456133749369</v>
+        <v>957.9946671387007</v>
       </c>
       <c r="X31" t="n">
-        <v>837.2274481327224</v>
+        <v>785.7659815220544</v>
       </c>
       <c r="Y31" t="n">
-        <v>672.1957342705631</v>
+        <v>620.7342676598953</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6841,19 +6841,19 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6926,10 +6926,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
@@ -7023,19 +7023,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>2013.406634128704</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2292.946699347401</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254959</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7315,28 +7315,28 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7731,19 +7731,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,19 +7804,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649685</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>20.63789864135472</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.9802687929765</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.0022427662453</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>148.2747143566559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>15.83804904622872</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>28.12263706263059</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>44.93311153870027</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>68.80485128466009</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>89.46712937836134</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>4.548926965501551</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>63.77968044206358</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127111</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>176.1730614329179</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>191.2121017489009</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>185.6906053989049</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>183.0685713167833</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>17.54883440919153</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523549</v>
       </c>
       <c r="S31" t="n">
-        <v>105.7079477198007</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.192202140984591e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.076881969</v>
       </c>
       <c r="F2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="G2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="H2" t="n">
         <v>175963.076881969</v>
@@ -26335,10 +26335,10 @@
         <v>175963.076881969</v>
       </c>
       <c r="J2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.076881969</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053712</v>
+        <v>183069.9618053713</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194641</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194641</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194642</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.278882670405437e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284585</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086668</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284591</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563573</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275958</v>
       </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,16 +26494,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002538</v>
@@ -26522,46 +26522,46 @@
         <v>-644867.5173097128</v>
       </c>
       <c r="C6" t="n">
-        <v>-54899.6380951684</v>
+        <v>-54899.63809516843</v>
       </c>
       <c r="D6" t="n">
-        <v>-54899.6380951684</v>
+        <v>-54899.63809516846</v>
       </c>
       <c r="E6" t="n">
-        <v>-456229.9551650828</v>
+        <v>-456327.4142910549</v>
       </c>
       <c r="F6" t="n">
-        <v>68930.08131181329</v>
+        <v>68832.62218584109</v>
       </c>
       <c r="G6" t="n">
-        <v>68930.08131181325</v>
+        <v>68832.62218584117</v>
       </c>
       <c r="H6" t="n">
-        <v>68930.08131181328</v>
+        <v>68832.62218584113</v>
       </c>
       <c r="I6" t="n">
-        <v>68930.0813118128</v>
+        <v>68832.6221858411</v>
       </c>
       <c r="J6" t="n">
-        <v>-107493.1378807793</v>
+        <v>-107590.5970067519</v>
       </c>
       <c r="K6" t="n">
-        <v>9068.855836667106</v>
+        <v>9050.362098732545</v>
       </c>
       <c r="L6" t="n">
-        <v>39211.92873581224</v>
+        <v>39211.92873581246</v>
       </c>
       <c r="M6" t="n">
-        <v>-85246.17969715805</v>
+        <v>-85246.17969715793</v>
       </c>
       <c r="N6" t="n">
-        <v>49554.83553667905</v>
+        <v>49554.83553667912</v>
       </c>
       <c r="O6" t="n">
-        <v>49554.83553667911</v>
+        <v>49554.83553667931</v>
       </c>
       <c r="P6" t="n">
-        <v>5392.230233833485</v>
+        <v>5392.230233833223</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108335</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855738</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>311.9145048601267</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>128.1257662062455</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.47001355005852</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>49.00996981419894</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>45.44599083511844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>212.5281209457394</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>136.0107567844082</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>140.0272367202278</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>135.5621037125697</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>77.12714893143618</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>110.4879679316811</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>138.8506095508058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28269,10 +28269,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-2.196383757076064e-12</v>
       </c>
       <c r="K13" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.1985191750489</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556203</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299108</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>227.7313135728794</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879394</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>277.0152755513195</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>298.8501529445951</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.8510818313028</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412283</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043206</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37391,22 +37391,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>235.2160519941552</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38099,7 +38099,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>353.881855992819</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
